--- a/Data/RV2_tourism_expenses_domestic.xlsx
+++ b/Data/RV2_tourism_expenses_domestic.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -387,127 +387,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>1998</v>
-      </c>
-      <c r="C1">
-        <v>2003</v>
-      </c>
-      <c r="D1">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2008</v>
       </c>
-      <c r="E1">
+      <c r="B2">
+        <v>110.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2009</v>
       </c>
-      <c r="F1">
+      <c r="B3">
+        <v>144.202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2010</v>
       </c>
-      <c r="G1">
+      <c r="B4">
+        <v>116.578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2011</v>
       </c>
-      <c r="H1">
+      <c r="B5">
+        <v>133.87899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2012</v>
       </c>
-      <c r="I1">
+      <c r="B6">
+        <v>117.465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2013</v>
       </c>
-      <c r="J1">
+      <c r="B7">
+        <v>132.608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2014</v>
       </c>
-      <c r="K1">
+      <c r="B8">
+        <v>129.017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2015</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>93.436377199999995</v>
-      </c>
-      <c r="C2">
-        <v>91.315789600000002</v>
-      </c>
-      <c r="D2">
-        <v>110.22</v>
-      </c>
-      <c r="E2">
-        <v>144.202</v>
-      </c>
-      <c r="F2">
-        <v>116.578</v>
-      </c>
-      <c r="G2">
-        <v>133.87899999999999</v>
-      </c>
-      <c r="H2">
-        <v>117.465</v>
-      </c>
-      <c r="I2">
-        <v>132.608</v>
-      </c>
-      <c r="J2">
-        <v>129.017</v>
-      </c>
-      <c r="K2">
+      <c r="B9">
         <v>128.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -545,12 +527,6 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/RV2_tourism_expenses_domestic.xlsx
+++ b/Data/RV2_tourism_expenses_domestic.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,23 +26,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>      Domestic travel</t>
+    <t>year</t>
   </si>
   <si>
-    <t>year</t>
+    <t>      expenses_domestic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,13 +71,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,146 +396,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="2">
+        <v>110.22</v>
+      </c>
+      <c r="C2" s="2">
+        <v>144.202</v>
+      </c>
+      <c r="D2" s="2">
+        <v>116.578</v>
+      </c>
+      <c r="E2" s="2">
+        <v>133.87899999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>117.465</v>
+      </c>
+      <c r="G2" s="2">
+        <v>132.608</v>
+      </c>
+      <c r="H2" s="2">
+        <v>129.017</v>
+      </c>
+      <c r="I2" s="2">
+        <v>128.5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2008</v>
-      </c>
-      <c r="B2">
-        <v>110.22</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2009</v>
-      </c>
-      <c r="B3">
-        <v>144.202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2010</v>
-      </c>
-      <c r="B4">
-        <v>116.578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2011</v>
-      </c>
-      <c r="B5">
-        <v>133.87899999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2012</v>
-      </c>
-      <c r="B6">
-        <v>117.465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2013</v>
-      </c>
-      <c r="B7">
-        <v>132.608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2014</v>
-      </c>
-      <c r="B8">
-        <v>129.017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2015</v>
-      </c>
-      <c r="B9">
-        <v>128.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/RV2_tourism_expenses_domestic.xlsx
+++ b/Data/RV2_tourism_expenses_domestic.xlsx
@@ -29,7 +29,7 @@
     <t>year</t>
   </si>
   <si>
-    <t>      expenses_domestic</t>
+    <t>expenses_domestic</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
